--- a/smart_dev_sales.xlsx
+++ b/smart_dev_sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e269ce536976a1eb/GoodNotes/S3 - BEFD/Final Project/Potential Projects/Lithium/Datasets/Mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{953BB286-0AE2-4611-AA8C-77EB03BE7B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85251298-FD29-4BF8-A277-20EDC92D39AF}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{953BB286-0AE2-4611-AA8C-77EB03BE7B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6A2D3ED-C2F9-4DA8-BDA2-B85682B338C4}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,27 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
-    <t>Smart home devices</t>
-  </si>
-  <si>
-    <t>Smart STBs</t>
-  </si>
-  <si>
-    <t>Smart TVs</t>
-  </si>
-  <si>
-    <t>360 cameras</t>
-  </si>
-  <si>
-    <t>VR devices</t>
-  </si>
-  <si>
     <t>Wearables</t>
   </si>
   <si>
-    <t>Other portables</t>
-  </si>
-  <si>
     <t>Tablets</t>
   </si>
   <si>
@@ -53,6 +35,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Smart_home_devices</t>
+  </si>
+  <si>
+    <t>Smart_STBs</t>
+  </si>
+  <si>
+    <t>Smart_TVs</t>
+  </si>
+  <si>
+    <t>360_cameras</t>
+  </si>
+  <si>
+    <t>VR_devices</t>
+  </si>
+  <si>
+    <t>Other_portables</t>
   </si>
 </sst>
 </file>
@@ -134,10 +134,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,7 +459,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -482,34 +478,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -526,13 +522,13 @@
         <v>70000000</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
         <v>130000000</v>
@@ -560,10 +556,10 @@
         <v>70000000</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3">
         <v>30000000</v>
@@ -594,10 +590,10 @@
         <v>60000000</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
         <v>90000000</v>
@@ -628,7 +624,7 @@
         <v>90000000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
         <v>40000000</v>
